--- a/Experiments/Part1-Uniform-MajorMinor/BestCase and Worst Case/Graph.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/BestCase and Worst Case/Graph.xlsx
@@ -645,20 +645,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126393576"/>
-        <c:axId val="-2128025064"/>
+        <c:axId val="2108074664"/>
+        <c:axId val="2097277432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126393576"/>
+        <c:axId val="2108074664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128025064"/>
+        <c:crossAx val="2097277432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,18 +685,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128025064"/>
+        <c:axId val="2097277432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126393576"/>
+        <c:crossAx val="2108074664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
